--- a/ECanteen/database.xlsx
+++ b/ECanteen/database.xlsx
@@ -439,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3075</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1935</v>
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>245</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/ECanteen/database.xlsx
+++ b/ECanteen/database.xlsx
@@ -439,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1785</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>325</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>850</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
